--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90017.45876213686</v>
+        <v>16124730.47881941</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90017.45876213686</v>
+        <v>16124730.47881941</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5238.287315520134</v>
+        <v>527372.6715034454</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5238.287315520134</v>
+        <v>527372.6715034454</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112610060.982406</v>
+        <v>45677843.4206087</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8891.571407490457</v>
+        <v>1060380.323495642</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16921.21770821434</v>
+        <v>1969949.502914534</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25001.5006822392</v>
+        <v>2879518.682333426</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33241.98300721814</v>
+        <v>3791452.520915122</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41489.84241024226</v>
+        <v>4702963.895734398</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49689.05433976337</v>
+        <v>5614475.27055354</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57938.40128467478</v>
+        <v>6525986.645372697</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66155.00826151339</v>
+        <v>7437498.020191994</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74208.72514810351</v>
+        <v>8343010.57891851</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82262.03062537783</v>
+        <v>9253094.965267261</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90298.05112319039</v>
+        <v>10162664.14468611</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98107.65197878229</v>
+        <v>11070883.42573695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105925.9009146318</v>
+        <v>11979376.11993877</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114087.6734226313</v>
+        <v>12829914.39379184</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122393.596820881</v>
+        <v>13684525.47264774</v>
       </c>
     </row>
   </sheetData>
@@ -27040,22 +27040,22 @@
         <v>49.00000000005531</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.0000000001149</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>48.99999999988512</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1.728622247930616e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
